--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Lgi2</t>
+  </si>
+  <si>
+    <t>Adam22</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lgi2</t>
-  </si>
-  <si>
-    <t>Adam22</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1156076666666667</v>
+        <v>3.534912333333333</v>
       </c>
       <c r="H2">
-        <v>0.346823</v>
+        <v>10.604737</v>
       </c>
       <c r="I2">
-        <v>0.0262963554364261</v>
+        <v>0.9734411944552773</v>
       </c>
       <c r="J2">
-        <v>0.02787250156631785</v>
+        <v>0.9821359806312981</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.319612666666667</v>
+        <v>1.507281333333333</v>
       </c>
       <c r="N2">
-        <v>9.958838</v>
+        <v>4.521844</v>
       </c>
       <c r="O2">
-        <v>0.1773188829476472</v>
+        <v>0.2777659256678391</v>
       </c>
       <c r="P2">
-        <v>0.2112475282640173</v>
+        <v>0.2908185693226504</v>
       </c>
       <c r="Q2">
-        <v>0.3837726746304444</v>
+        <v>5.32810737500311</v>
       </c>
       <c r="R2">
-        <v>3.453954071674</v>
+        <v>47.952966375028</v>
       </c>
       <c r="S2">
-        <v>0.004662840371581367</v>
+        <v>0.2703887944610771</v>
       </c>
       <c r="T2">
-        <v>0.005887997062419595</v>
+        <v>0.2856233807674924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1156076666666667</v>
+        <v>3.534912333333333</v>
       </c>
       <c r="H3">
-        <v>0.346823</v>
+        <v>10.604737</v>
       </c>
       <c r="I3">
-        <v>0.0262963554364261</v>
+        <v>0.9734411944552773</v>
       </c>
       <c r="J3">
-        <v>0.02787250156631785</v>
+        <v>0.9821359806312981</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.676898</v>
       </c>
       <c r="O3">
-        <v>0.0654678232613522</v>
+        <v>0.2258629392248442</v>
       </c>
       <c r="P3">
-        <v>0.07799460280194422</v>
+        <v>0.2364765825413957</v>
       </c>
       <c r="Q3">
-        <v>0.1416925327837778</v>
+        <v>4.332504029536222</v>
       </c>
       <c r="R3">
-        <v>1.275232795054</v>
+        <v>38.992536265826</v>
       </c>
       <c r="S3">
-        <v>0.001721565150129642</v>
+        <v>0.219864289342212</v>
       </c>
       <c r="T3">
-        <v>0.002173904688761529</v>
+        <v>0.2322521602906318</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1156076666666667</v>
+        <v>3.534912333333333</v>
       </c>
       <c r="H4">
-        <v>0.346823</v>
+        <v>10.604737</v>
       </c>
       <c r="I4">
-        <v>0.0262963554364261</v>
+        <v>0.9734411944552773</v>
       </c>
       <c r="J4">
-        <v>0.02787250156631785</v>
+        <v>0.9821359806312981</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.216913333333333</v>
+        <v>0.9373149999999999</v>
       </c>
       <c r="N4">
-        <v>6.65074</v>
+        <v>2.811945</v>
       </c>
       <c r="O4">
-        <v>0.1184176093210107</v>
+        <v>0.1727309712259096</v>
       </c>
       <c r="P4">
-        <v>0.1410759353778654</v>
+        <v>0.1808478624901656</v>
       </c>
       <c r="Q4">
-        <v>0.2562921776688889</v>
+        <v>3.313326353718333</v>
       </c>
       <c r="R4">
-        <v>2.30662959902</v>
+        <v>29.819937183465</v>
       </c>
       <c r="S4">
-        <v>0.003113951544637142</v>
+        <v>0.1681434429495695</v>
       </c>
       <c r="T4">
-        <v>0.003932139229789309</v>
+        <v>0.1776171927718529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1156076666666667</v>
+        <v>3.534912333333333</v>
       </c>
       <c r="H5">
-        <v>0.346823</v>
+        <v>10.604737</v>
       </c>
       <c r="I5">
-        <v>0.0262963554364261</v>
+        <v>0.9734411944552773</v>
       </c>
       <c r="J5">
-        <v>0.02787250156631785</v>
+        <v>0.9821359806312981</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.020457499999999</v>
+        <v>0.730656</v>
       </c>
       <c r="N5">
-        <v>18.040915</v>
+        <v>1.461312</v>
       </c>
       <c r="O5">
-        <v>0.4818325534294442</v>
+        <v>0.1346472856105345</v>
       </c>
       <c r="P5">
-        <v>0.3826850784570683</v>
+        <v>0.0939830443451877</v>
       </c>
       <c r="Q5">
-        <v>1.042834043840833</v>
+        <v>2.582804905824</v>
       </c>
       <c r="R5">
-        <v>6.257004263044999</v>
+        <v>15.496829434944</v>
       </c>
       <c r="S5">
-        <v>0.01267044008582144</v>
+        <v>0.1310712145348796</v>
       </c>
       <c r="T5">
-        <v>0.0106663904487011</v>
+        <v>0.0923041294206757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1156076666666667</v>
+        <v>3.534912333333333</v>
       </c>
       <c r="H6">
-        <v>0.346823</v>
+        <v>10.604737</v>
       </c>
       <c r="I6">
-        <v>0.0262963554364261</v>
+        <v>0.9734411944552773</v>
       </c>
       <c r="J6">
-        <v>0.02787250156631785</v>
+        <v>0.9821359806312981</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.938529666666666</v>
+        <v>1.025559333333333</v>
       </c>
       <c r="N6">
-        <v>8.815588999999999</v>
+        <v>3.076678</v>
       </c>
       <c r="O6">
-        <v>0.1569631310405457</v>
+        <v>0.1889928782708727</v>
       </c>
       <c r="P6">
-        <v>0.1869968550991049</v>
+        <v>0.1978739413006007</v>
       </c>
       <c r="Q6">
-        <v>0.3397165581941111</v>
+        <v>3.625262335965111</v>
       </c>
       <c r="R6">
-        <v>3.057449023747</v>
+        <v>32.627361023686</v>
       </c>
       <c r="S6">
-        <v>0.004127558284256518</v>
+        <v>0.1839734531675391</v>
       </c>
       <c r="T6">
-        <v>0.005212070136646313</v>
+        <v>0.1943391173806454</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>3.534912333333333</v>
+        <v>0.0964445</v>
       </c>
       <c r="H7">
-        <v>10.604737</v>
+        <v>0.192889</v>
       </c>
       <c r="I7">
-        <v>0.8040583625129217</v>
+        <v>0.0265588055447227</v>
       </c>
       <c r="J7">
-        <v>0.8522518651960477</v>
+        <v>0.01786401936870197</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.319612666666667</v>
+        <v>1.507281333333333</v>
       </c>
       <c r="N7">
-        <v>9.958838</v>
+        <v>4.521844</v>
       </c>
       <c r="O7">
-        <v>0.1773188829476472</v>
+        <v>0.2777659256678391</v>
       </c>
       <c r="P7">
-        <v>0.2112475282640173</v>
+        <v>0.2908185693226504</v>
       </c>
       <c r="Q7">
-        <v>11.73453975728956</v>
+        <v>0.1453689945526667</v>
       </c>
       <c r="R7">
-        <v>105.610857815606</v>
+        <v>0.872213967316</v>
       </c>
       <c r="S7">
-        <v>0.1425747306655057</v>
+        <v>0.007377131206762038</v>
       </c>
       <c r="T7">
-        <v>0.1800360999810635</v>
+        <v>0.005195188555158025</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>3.534912333333333</v>
+        <v>0.0964445</v>
       </c>
       <c r="H8">
-        <v>10.604737</v>
+        <v>0.192889</v>
       </c>
       <c r="I8">
-        <v>0.8040583625129217</v>
+        <v>0.0265588055447227</v>
       </c>
       <c r="J8">
-        <v>0.8522518651960477</v>
+        <v>0.01786401936870197</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.676898</v>
       </c>
       <c r="O8">
-        <v>0.0654678232613522</v>
+        <v>0.2258629392248442</v>
       </c>
       <c r="P8">
-        <v>0.07799460280194422</v>
+        <v>0.2364765825413957</v>
       </c>
       <c r="Q8">
-        <v>4.332504029536222</v>
+        <v>0.1182055297203333</v>
       </c>
       <c r="R8">
-        <v>38.992536265826</v>
+        <v>0.7092331783220001</v>
       </c>
       <c r="S8">
-        <v>0.05263995076880822</v>
+        <v>0.005998649882632157</v>
       </c>
       <c r="T8">
-        <v>0.06647104571318184</v>
+        <v>0.004224422250763943</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>3.534912333333333</v>
+        <v>0.0964445</v>
       </c>
       <c r="H9">
-        <v>10.604737</v>
+        <v>0.192889</v>
       </c>
       <c r="I9">
-        <v>0.8040583625129217</v>
+        <v>0.0265588055447227</v>
       </c>
       <c r="J9">
-        <v>0.8522518651960477</v>
+        <v>0.01786401936870197</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.216913333333333</v>
+        <v>0.9373149999999999</v>
       </c>
       <c r="N9">
-        <v>6.65074</v>
+        <v>2.811945</v>
       </c>
       <c r="O9">
-        <v>0.1184176093210107</v>
+        <v>0.1727309712259096</v>
       </c>
       <c r="P9">
-        <v>0.1410759353778654</v>
+        <v>0.1808478624901656</v>
       </c>
       <c r="Q9">
-        <v>7.83659428393111</v>
+        <v>0.09039887651749999</v>
       </c>
       <c r="R9">
-        <v>70.52934855538</v>
+        <v>0.5423932591049999</v>
       </c>
       <c r="S9">
-        <v>0.09521466904334674</v>
+        <v>0.004587528276340024</v>
       </c>
       <c r="T9">
-        <v>0.1202322290600629</v>
+        <v>0.003230669718312669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>3.534912333333333</v>
+        <v>0.0964445</v>
       </c>
       <c r="H10">
-        <v>10.604737</v>
+        <v>0.192889</v>
       </c>
       <c r="I10">
-        <v>0.8040583625129217</v>
+        <v>0.0265588055447227</v>
       </c>
       <c r="J10">
-        <v>0.8522518651960477</v>
+        <v>0.01786401936870197</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.020457499999999</v>
+        <v>0.730656</v>
       </c>
       <c r="N10">
-        <v>18.040915</v>
+        <v>1.461312</v>
       </c>
       <c r="O10">
-        <v>0.4818325534294442</v>
+        <v>0.1346472856105345</v>
       </c>
       <c r="P10">
-        <v>0.3826850784570683</v>
+        <v>0.0939830443451877</v>
       </c>
       <c r="Q10">
-        <v>31.88652646905916</v>
+        <v>0.070467752592</v>
       </c>
       <c r="R10">
-        <v>191.319158814355</v>
+        <v>0.281871010368</v>
       </c>
       <c r="S10">
-        <v>0.3874214939158988</v>
+        <v>0.003576071075654926</v>
       </c>
       <c r="T10">
-        <v>0.3261440718977323</v>
+        <v>0.00167891492451201</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>3.534912333333333</v>
+        <v>0.0964445</v>
       </c>
       <c r="H11">
-        <v>10.604737</v>
+        <v>0.192889</v>
       </c>
       <c r="I11">
-        <v>0.8040583625129217</v>
+        <v>0.0265588055447227</v>
       </c>
       <c r="J11">
-        <v>0.8522518651960477</v>
+        <v>0.01786401936870197</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.938529666666666</v>
+        <v>1.025559333333333</v>
       </c>
       <c r="N11">
-        <v>8.815588999999999</v>
+        <v>3.076678</v>
       </c>
       <c r="O11">
-        <v>0.1569631310405457</v>
+        <v>0.1889928782708727</v>
       </c>
       <c r="P11">
-        <v>0.1869968550991049</v>
+        <v>0.1978739413006007</v>
       </c>
       <c r="Q11">
-        <v>10.38744476056589</v>
+        <v>0.09890955712366668</v>
       </c>
       <c r="R11">
-        <v>93.48700284509299</v>
+        <v>0.593457342742</v>
       </c>
       <c r="S11">
-        <v>0.1262075181193624</v>
+        <v>0.005019425103333555</v>
       </c>
       <c r="T11">
-        <v>0.1593684185440072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H12">
-        <v>1.491636</v>
-      </c>
-      <c r="I12">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J12">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>3.319612666666667</v>
-      </c>
-      <c r="N12">
-        <v>9.958838</v>
-      </c>
-      <c r="O12">
-        <v>0.1773188829476472</v>
-      </c>
-      <c r="P12">
-        <v>0.2112475282640173</v>
-      </c>
-      <c r="Q12">
-        <v>2.475826879828</v>
-      </c>
-      <c r="R12">
-        <v>14.854961278968</v>
-      </c>
-      <c r="S12">
-        <v>0.03008131191056019</v>
-      </c>
-      <c r="T12">
-        <v>0.02532343122053415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H13">
-        <v>1.491636</v>
-      </c>
-      <c r="I13">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J13">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.225632666666667</v>
-      </c>
-      <c r="N13">
-        <v>3.676898</v>
-      </c>
-      <c r="O13">
-        <v>0.0654678232613522</v>
-      </c>
-      <c r="P13">
-        <v>0.07799460280194422</v>
-      </c>
-      <c r="Q13">
-        <v>0.9140989041880001</v>
-      </c>
-      <c r="R13">
-        <v>5.484593425128001</v>
-      </c>
-      <c r="S13">
-        <v>0.01110630734241434</v>
-      </c>
-      <c r="T13">
-        <v>0.009349652400000841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H14">
-        <v>1.491636</v>
-      </c>
-      <c r="I14">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J14">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.216913333333333</v>
-      </c>
-      <c r="N14">
-        <v>6.65074</v>
-      </c>
-      <c r="O14">
-        <v>0.1184176093210107</v>
-      </c>
-      <c r="P14">
-        <v>0.1410759353778654</v>
-      </c>
-      <c r="Q14">
-        <v>1.65341386844</v>
-      </c>
-      <c r="R14">
-        <v>9.92048321064</v>
-      </c>
-      <c r="S14">
-        <v>0.0200889887330268</v>
-      </c>
-      <c r="T14">
-        <v>0.01691156708801321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H15">
-        <v>1.491636</v>
-      </c>
-      <c r="I15">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J15">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>9.020457499999999</v>
-      </c>
-      <c r="N15">
-        <v>18.040915</v>
-      </c>
-      <c r="O15">
-        <v>0.4818325534294442</v>
-      </c>
-      <c r="P15">
-        <v>0.3826850784570683</v>
-      </c>
-      <c r="Q15">
-        <v>6.727619571735</v>
-      </c>
-      <c r="R15">
-        <v>26.91047828694</v>
-      </c>
-      <c r="S15">
-        <v>0.081740619427724</v>
-      </c>
-      <c r="T15">
-        <v>0.04587461611063489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H16">
-        <v>1.491636</v>
-      </c>
-      <c r="I16">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J16">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.938529666666666</v>
-      </c>
-      <c r="N16">
-        <v>8.815588999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.1569631310405457</v>
-      </c>
-      <c r="P16">
-        <v>0.1869968550991049</v>
-      </c>
-      <c r="Q16">
-        <v>2.191608318934</v>
-      </c>
-      <c r="R16">
-        <v>13.149649913604</v>
-      </c>
-      <c r="S16">
-        <v>0.02662805463692686</v>
-      </c>
-      <c r="T16">
-        <v>0.02241636641845137</v>
+        <v>0.003534823919955329</v>
       </c>
     </row>
   </sheetData>
